--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
@@ -689,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1846822601012179</v>
+        <v>0.1592075617089303</v>
       </c>
       <c r="E2">
-        <v>0.03612287545471059</v>
+        <v>0.03823523833284777</v>
       </c>
       <c r="F2">
-        <v>0.3421754535433115</v>
+        <v>0.2874547106315196</v>
       </c>
       <c r="G2">
-        <v>0.1505025059725814</v>
+        <v>0.1313748921054377</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003144626180924147</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.005787637745427417</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -716,37 +716,37 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0002717033105636279</v>
+        <v>0.009041528353817442</v>
       </c>
       <c r="N2">
-        <v>0.01848680942741538</v>
+        <v>0.02387414032741081</v>
       </c>
       <c r="O2">
-        <v>0.1338826017316122</v>
+        <v>0.1178412574912254</v>
       </c>
       <c r="P2">
-        <v>0.05611776204902586</v>
+        <v>0.05451713053852118</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002497438167938582</v>
       </c>
       <c r="R2">
-        <v>0.004186786987433726</v>
+        <v>0.01222959196709713</v>
       </c>
       <c r="S2">
-        <v>0.01644636773052333</v>
+        <v>0.02221260293363519</v>
       </c>
       <c r="T2">
-        <v>0.00133399114960837</v>
+        <v>0.009906552319076722</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.006939517974759097</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.005512484562205276</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>8.959972266447644E-05</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -755,34 +755,34 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.001622585697704025</v>
+        <v>0.01014155566861182</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.001168223474720481</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.005760862439688418</v>
       </c>
       <c r="AC2">
-        <v>0.005478047512542689</v>
+        <v>0.01328106903250058</v>
       </c>
       <c r="AD2">
-        <v>0.002480199335002122</v>
+        <v>0.01083991285762299</v>
       </c>
       <c r="AE2">
-        <v>0.01411555144945933</v>
+        <v>0.02031461270195755</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.007329755439671342</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.005654245518567836</v>
       </c>
       <c r="AH2">
-        <v>0.03209449854728772</v>
+        <v>0.03495491972433259</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.0006883320788882887</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3670825490845082</v>
+        <v>0.3191729523797016</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.005600351008586421</v>
       </c>
       <c r="F3">
-        <v>0.4588233992205751</v>
+        <v>0.3967108615588501</v>
       </c>
       <c r="G3">
-        <v>0.03668130700365096</v>
+        <v>0.03992307118559128</v>
       </c>
       <c r="H3">
-        <v>0.007784086107060921</v>
+        <v>0.01549959913266868</v>
       </c>
       <c r="I3">
-        <v>0.004877939741631982</v>
+        <v>0.01304337039040468</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -823,73 +823,73 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.620268599347979E-05</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0008000255620156936</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05628735673447342</v>
+        <v>0.05649379296477311</v>
       </c>
       <c r="P3">
-        <v>0.006825496494718258</v>
+        <v>0.01468941442006071</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.006197714382339354</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.006715624774430327</v>
       </c>
       <c r="T3">
-        <v>0.0220912063283072</v>
+        <v>0.02759174986688153</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.001625291014004356</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.003003001501132451</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.002559736786968381</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0001324660084132898</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.002227545500531473</v>
       </c>
       <c r="Z3">
-        <v>0.001363599879531247</v>
+        <v>0.0100731061662551</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004379513555871962</v>
+        <v>0.01262210849598524</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>0.0009893414123679173</v>
       </c>
       <c r="AD3">
-        <v>0.002170179387268614</v>
+        <v>0.0107548143532181</v>
       </c>
       <c r="AE3">
-        <v>0.0134331378923263</v>
+        <v>0.02027408796315765</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01062593620549025</v>
+        <v>0.01790148569144757</v>
       </c>
       <c r="AH3">
-        <v>0.007574292364585204</v>
+        <v>0.01532228479422175</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2502318013264258</v>
+        <v>0.2193119956081596</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.001582622670511003</v>
       </c>
       <c r="F4">
-        <v>0.4560376009811742</v>
+        <v>0.3926029853694297</v>
       </c>
       <c r="G4">
-        <v>0.1328613007140707</v>
+        <v>0.1204846046696581</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007553044896010359</v>
       </c>
       <c r="I4">
-        <v>0.009337097654170715</v>
+        <v>0.01647572132608177</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.001615762413886017</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0006477235082831057</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.06133225956465835</v>
+        <v>0.0602562808894235</v>
       </c>
       <c r="P4">
-        <v>0.03512307784460952</v>
+        <v>0.03818783068675956</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.007808950322764493</v>
       </c>
       <c r="S4">
-        <v>0.007455338003167065</v>
+        <v>0.01489125678250582</v>
       </c>
       <c r="T4">
-        <v>0.003301832398478458</v>
+        <v>0.01139395447896083</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>4.50319936258416E-05</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.006132004070629013</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.001151112975604126</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -975,31 +975,31 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.001987832597119406</v>
+        <v>0.01028755064337597</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0014144389273417</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.005956402206225784</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.007671432564251818</v>
       </c>
       <c r="AD4">
-        <v>0.001695504342929497</v>
+        <v>0.01004140669316303</v>
       </c>
       <c r="AE4">
-        <v>0.02503426312104645</v>
+        <v>0.02969292582063238</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.004437292306774425</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.008606745772333467</v>
       </c>
       <c r="AH4">
-        <v>0.01560209145214949</v>
+        <v>0.02175092240360841</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3678392964760315</v>
+        <v>0.3146589882964852</v>
       </c>
       <c r="E5">
-        <v>0.04683073161579145</v>
+        <v>0.04793734556872665</v>
       </c>
       <c r="F5">
-        <v>0.4408058585815912</v>
+        <v>0.3752859105640113</v>
       </c>
       <c r="G5">
-        <v>0.005518495593361934</v>
+        <v>0.01361157154629005</v>
       </c>
       <c r="H5">
-        <v>0.0143745827254378</v>
+        <v>0.02096997367813301</v>
       </c>
       <c r="I5">
-        <v>0.004984225349362353</v>
+        <v>0.01316765368010423</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,76 +1043,76 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.001484828305000469</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.005622307095550214</v>
       </c>
       <c r="O5">
-        <v>0.05628190251094038</v>
+        <v>0.05579019469115556</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.008036407789700231</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.000428588743355322</v>
+        <v>0.009382437295756583</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.006688176871886563</v>
       </c>
       <c r="T5">
-        <v>0.01849971645656474</v>
+        <v>0.02439749108944225</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.001922702835810308</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.001245246893827866</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.001843266272853867</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0006382099376503576</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>0.004574462846764498</v>
       </c>
       <c r="Z5">
-        <v>0.003151335497256952</v>
+        <v>0.01164473047553044</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.007284162925721574</v>
+        <v>0.01507864047512919</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.009758427364976797</v>
+        <v>0.01713447308529133</v>
       </c>
       <c r="AE5">
-        <v>0.01528437457549021</v>
+        <v>0.02172590733022093</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.008958301584117635</v>
+        <v>0.01646965947587097</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.006758476655845858</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.003930937242962128</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2842842859730206</v>
+        <v>0.2503307642664209</v>
       </c>
       <c r="F6">
-        <v>0.09100225781906657</v>
+        <v>0.08608628482077046</v>
       </c>
       <c r="G6">
-        <v>0.4855514973602118</v>
+        <v>0.4213607802461588</v>
       </c>
       <c r="H6">
-        <v>0.01203494998421669</v>
+        <v>0.01898255824859036</v>
       </c>
       <c r="I6">
-        <v>0.02288420403985639</v>
+        <v>0.02820188454478797</v>
       </c>
       <c r="J6">
-        <v>0.01502498861760896</v>
+        <v>0.02152339116282657</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.003420034168001239</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1162,28 +1162,28 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.003117099404869358</v>
       </c>
       <c r="P6">
-        <v>0.03396743791293576</v>
+        <v>0.0376200389145691</v>
       </c>
       <c r="Q6">
-        <v>0.002973030301002553</v>
+        <v>0.01128204778021782</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.007837840720066248</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.002575266190961002</v>
       </c>
       <c r="U6">
-        <v>0.01079579158656727</v>
+        <v>0.01792956367937711</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.001408821707461609</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1195,37 +1195,37 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.00187052651833792</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.006940507104306092</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01167705922835181</v>
+        <v>0.01867843488307695</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.00699679190305257</v>
+        <v>0.01470130323844228</v>
       </c>
       <c r="AF6">
-        <v>0.01404168184336196</v>
+        <v>0.02068781058239652</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.008766023430746882</v>
+        <v>0.01620473588585596</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.005132423286430712</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.004107882646074946</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1239,31 +1239,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07454841270004955</v>
+        <v>0.07342986975253207</v>
       </c>
       <c r="E7">
-        <v>0.1079215105597192</v>
+        <v>0.1037046969787936</v>
       </c>
       <c r="F7">
-        <v>0.3772733962050943</v>
+        <v>0.3480506619614468</v>
       </c>
       <c r="G7">
-        <v>0.2496651718738849</v>
+        <v>0.232289249565084</v>
       </c>
       <c r="H7">
-        <v>0.0169937337993714</v>
+        <v>0.02121841587109001</v>
       </c>
       <c r="I7">
-        <v>0.03357594587400043</v>
+        <v>0.03626117898824441</v>
       </c>
       <c r="J7">
-        <v>0.01453651752689589</v>
+        <v>0.01898932109482549</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0001927655964754063</v>
+        <v>0.005977205369284188</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04862953471870277</v>
+        <v>0.04991723223583025</v>
       </c>
       <c r="P7">
-        <v>0.01035623524432942</v>
+        <v>0.01519712522515039</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.01373273019738576</v>
+        <v>0.01826015526701108</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.01576450582855784</v>
+        <v>0.02010330619219379</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0001845679473437265</v>
+        <v>0.00596976876833792</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.006779867221238154</v>
+        <v>0.01195277780340683</v>
       </c>
       <c r="AD7">
-        <v>0.01222636206053013</v>
+        <v>0.0168936343862042</v>
       </c>
       <c r="AE7">
-        <v>0.01761874264642111</v>
+        <v>0.02178540054056482</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1352,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2945667478573543</v>
+        <v>0.330567670488857</v>
       </c>
       <c r="F8">
-        <v>0.01149969093354612</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3497332595602707</v>
+        <v>0.3964022110801627</v>
       </c>
       <c r="H8">
-        <v>0.1896942263196289</v>
+        <v>0.2054150359835475</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.03995698905785239</v>
+        <v>0.02672180488662333</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01756526658571847</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.03995698905785239</v>
+        <v>0.02672180488662333</v>
       </c>
       <c r="R8">
-        <v>0.02483744981173079</v>
+        <v>0.008678468639789147</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>0.00262636066234207</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.007394852588863709</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.02216816756484003</v>
+        <v>0.005493004034397182</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1459,31 +1459,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3226212138074034</v>
+        <v>0.3075348122009955</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4721946624667994</v>
+        <v>0.4476349744057409</v>
       </c>
       <c r="G9">
-        <v>0.06627637698196412</v>
+        <v>0.06742566487916565</v>
       </c>
       <c r="H9">
-        <v>0.009278776584576202</v>
+        <v>0.01403802735039974</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03897304641781044</v>
+        <v>0.04185160026373819</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.008831583433486353</v>
+        <v>0.01361915733325379</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03049168538475201</v>
+        <v>0.03390740918505072</v>
       </c>
       <c r="P9">
-        <v>0.03879741086587735</v>
+        <v>0.04168708865064582</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1504,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.000498134202053452</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.0003219925422327795</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.0003153579942770082</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1525,31 +1525,31 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.004453684493733414</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.0004386453466918072</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>6.471356795998509E-06</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.002715482405766698</v>
       </c>
       <c r="AE9">
-        <v>0.01253524405733073</v>
+        <v>0.0170882453218146</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.002330653967218428</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.004132598100425573</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,52 +1569,52 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07185568370362862</v>
+        <v>0.06927810299631917</v>
       </c>
       <c r="E10">
-        <v>0.1244208921674546</v>
+        <v>0.1148558566615041</v>
       </c>
       <c r="F10">
-        <v>0.3417340394157604</v>
+        <v>0.3032817258427413</v>
       </c>
       <c r="G10">
-        <v>0.2027483403116044</v>
+        <v>0.1827712942877693</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01200489243730724</v>
+        <v>0.01738323373350549</v>
       </c>
       <c r="J10">
-        <v>0.02524806311256349</v>
+        <v>0.02886599939585815</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03659023754633048</v>
+        <v>0.03870046685974241</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01065451844725908</v>
+        <v>0.01621236397244209</v>
       </c>
       <c r="O10">
-        <v>0.02470722418407453</v>
+        <v>0.0283970537914252</v>
       </c>
       <c r="P10">
-        <v>0.08762768431512988</v>
+        <v>0.08295354307704948</v>
       </c>
       <c r="Q10">
-        <v>0.02917789631701283</v>
+        <v>0.03227344274045969</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.0003655524164857924</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.002640312202534511</v>
       </c>
       <c r="W10">
-        <v>0.002751408963919069</v>
+        <v>0.009359809064978113</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1635,34 +1635,34 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.002981873717387848</v>
+        <v>0.00955963830696307</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.006358132886781936</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.002270778978943264</v>
+        <v>0.008943068873138031</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01252024895165163</v>
+        <v>0.01783008428250886</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.00619833760475927</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.01270621742997269</v>
+        <v>0.0179913321067278</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.005780648896306137</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,52 +1679,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08235159196451732</v>
+        <v>0.07628472026848854</v>
       </c>
       <c r="E11">
-        <v>0.1477645775281499</v>
+        <v>0.1290356739290216</v>
       </c>
       <c r="F11">
-        <v>0.3046972953303805</v>
+        <v>0.2555908288921587</v>
       </c>
       <c r="G11">
-        <v>0.1874768730833635</v>
+        <v>0.1610608359749982</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.002389176980623534</v>
+        <v>0.01180067920149873</v>
       </c>
       <c r="J11">
-        <v>0.01279086949924961</v>
+        <v>0.02018890969294133</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.0004702910642270471</v>
       </c>
       <c r="L11">
-        <v>0.01343120778376208</v>
+        <v>0.02070529730133941</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.0001789121160526576</v>
       </c>
       <c r="N11">
-        <v>0.04067069159062578</v>
+        <v>0.04267201745103979</v>
       </c>
       <c r="O11">
-        <v>0.01523917373726314</v>
+        <v>0.02216329417170363</v>
       </c>
       <c r="P11">
-        <v>0.1168016926142017</v>
+        <v>0.1040662937177601</v>
       </c>
       <c r="Q11">
-        <v>0.005161281809164245</v>
+        <v>0.01403618599105261</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>8.818056312807447E-06</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1733,46 +1733,46 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.007150583621751809</v>
       </c>
       <c r="W11">
-        <v>0.0207958061590477</v>
+        <v>0.02664432583329982</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>0.001039332690689182</v>
       </c>
       <c r="Z11">
-        <v>0.002549766317257187</v>
+        <v>0.011930183161334</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>0.007557946377764371</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.0006432811262210261</v>
+        <v>0.01039273748292188</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.002349945484861545</v>
       </c>
       <c r="AE11">
-        <v>0.002360992143963318</v>
+        <v>0.01177795012102974</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.00552909822924566</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>0.00142808468589269</v>
       </c>
       <c r="AH11">
-        <v>0.02941671151229756</v>
+        <v>0.03359647722774645</v>
       </c>
       <c r="AI11">
-        <v>0.01545901081991187</v>
+        <v>0.02234057725486743</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,103 +1912,103 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1846822601012179</v>
+        <v>0.1592075617089303</v>
       </c>
       <c r="E2">
-        <v>0.2208051355559285</v>
+        <v>0.1974428000417781</v>
       </c>
       <c r="F2">
-        <v>0.56298058909924</v>
+        <v>0.4848975106732976</v>
       </c>
       <c r="G2">
-        <v>0.7134830950718214</v>
+        <v>0.6162724027787353</v>
       </c>
       <c r="H2">
-        <v>0.7134830950718214</v>
+        <v>0.6162724027787353</v>
       </c>
       <c r="I2">
-        <v>0.7134830950718214</v>
+        <v>0.6194170289596594</v>
       </c>
       <c r="J2">
-        <v>0.7134830950718214</v>
+        <v>0.6252046667050869</v>
       </c>
       <c r="K2">
-        <v>0.7134830950718214</v>
+        <v>0.6252046667050869</v>
       </c>
       <c r="L2">
-        <v>0.7134830950718214</v>
+        <v>0.6252046667050869</v>
       </c>
       <c r="M2">
-        <v>0.713754798382385</v>
+        <v>0.6342461950589043</v>
       </c>
       <c r="N2">
-        <v>0.7322416078098004</v>
+        <v>0.6581203353863152</v>
       </c>
       <c r="O2">
-        <v>0.8661242095414127</v>
+        <v>0.7759615928775406</v>
       </c>
       <c r="P2">
-        <v>0.9222419715904385</v>
+        <v>0.8304787234160618</v>
       </c>
       <c r="Q2">
-        <v>0.9222419715904385</v>
+        <v>0.8329761615840003</v>
       </c>
       <c r="R2">
-        <v>0.9264287585778722</v>
+        <v>0.8452057535510975</v>
       </c>
       <c r="S2">
-        <v>0.9428751263083955</v>
+        <v>0.8674183564847326</v>
       </c>
       <c r="T2">
-        <v>0.944209117458004</v>
+        <v>0.8773249088038093</v>
       </c>
       <c r="U2">
-        <v>0.944209117458004</v>
+        <v>0.8842644267785684</v>
       </c>
       <c r="V2">
-        <v>0.944209117458004</v>
+        <v>0.8897769113407737</v>
       </c>
       <c r="W2">
-        <v>0.944209117458004</v>
+        <v>0.8898665110634382</v>
       </c>
       <c r="X2">
-        <v>0.944209117458004</v>
+        <v>0.8898665110634382</v>
       </c>
       <c r="Y2">
-        <v>0.944209117458004</v>
+        <v>0.8898665110634382</v>
       </c>
       <c r="Z2">
-        <v>0.945831703155708</v>
+        <v>0.90000806673205</v>
       </c>
       <c r="AA2">
-        <v>0.945831703155708</v>
+        <v>0.9011762902067705</v>
       </c>
       <c r="AB2">
-        <v>0.945831703155708</v>
+        <v>0.9069371526464589</v>
       </c>
       <c r="AC2">
-        <v>0.9513097506682506</v>
+        <v>0.9202182216789595</v>
       </c>
       <c r="AD2">
-        <v>0.9537899500032527</v>
+        <v>0.9310581345365825</v>
       </c>
       <c r="AE2">
-        <v>0.967905501452712</v>
+        <v>0.95137274723854</v>
       </c>
       <c r="AF2">
-        <v>0.967905501452712</v>
+        <v>0.9587025026782113</v>
       </c>
       <c r="AG2">
-        <v>0.967905501452712</v>
+        <v>0.9643567481967792</v>
       </c>
       <c r="AH2">
-        <v>0.9999999999999998</v>
+        <v>0.9993116679211118</v>
       </c>
       <c r="AI2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:36">
@@ -2022,103 +2022,103 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3670825490845082</v>
+        <v>0.3191729523797016</v>
       </c>
       <c r="E3">
-        <v>0.3670825490845082</v>
+        <v>0.324773303388288</v>
       </c>
       <c r="F3">
-        <v>0.8259059483050833</v>
+        <v>0.7214841649471382</v>
       </c>
       <c r="G3">
-        <v>0.8625872553087343</v>
+        <v>0.7614072361327294</v>
       </c>
       <c r="H3">
-        <v>0.8703713414157952</v>
+        <v>0.7769068352653981</v>
       </c>
       <c r="I3">
-        <v>0.8752492811574272</v>
+        <v>0.7899502056558028</v>
       </c>
       <c r="J3">
-        <v>0.8752492811574272</v>
+        <v>0.7899502056558028</v>
       </c>
       <c r="K3">
-        <v>0.8752492811574272</v>
+        <v>0.7899502056558028</v>
       </c>
       <c r="L3">
-        <v>0.8752492811574272</v>
+        <v>0.7900264083417963</v>
       </c>
       <c r="M3">
-        <v>0.8752492811574272</v>
+        <v>0.7908264339038119</v>
       </c>
       <c r="N3">
-        <v>0.8752492811574272</v>
+        <v>0.7908264339038119</v>
       </c>
       <c r="O3">
-        <v>0.9315366378919006</v>
+        <v>0.847320226868585</v>
       </c>
       <c r="P3">
-        <v>0.9383621343866189</v>
+        <v>0.8620096412886457</v>
       </c>
       <c r="Q3">
-        <v>0.9383621343866189</v>
+        <v>0.8620096412886457</v>
       </c>
       <c r="R3">
-        <v>0.9383621343866189</v>
+        <v>0.8682073556709851</v>
       </c>
       <c r="S3">
-        <v>0.9383621343866189</v>
+        <v>0.8749229804454154</v>
       </c>
       <c r="T3">
-        <v>0.9604533407149261</v>
+        <v>0.9025147303122969</v>
       </c>
       <c r="U3">
-        <v>0.9604533407149261</v>
+        <v>0.9041400213263012</v>
       </c>
       <c r="V3">
-        <v>0.9604533407149261</v>
+        <v>0.9071430228274336</v>
       </c>
       <c r="W3">
-        <v>0.9604533407149261</v>
+        <v>0.9097027596144021</v>
       </c>
       <c r="X3">
-        <v>0.9604533407149261</v>
+        <v>0.9098352256228154</v>
       </c>
       <c r="Y3">
-        <v>0.9604533407149261</v>
+        <v>0.9120627711233469</v>
       </c>
       <c r="Z3">
-        <v>0.9618169405944573</v>
+        <v>0.922135877289602</v>
       </c>
       <c r="AA3">
-        <v>0.9618169405944573</v>
+        <v>0.922135877289602</v>
       </c>
       <c r="AB3">
-        <v>0.9661964541503293</v>
+        <v>0.9347579857855872</v>
       </c>
       <c r="AC3">
-        <v>0.9661964541503293</v>
+        <v>0.9357473271979552</v>
       </c>
       <c r="AD3">
-        <v>0.9683666335375979</v>
+        <v>0.9465021415511733</v>
       </c>
       <c r="AE3">
-        <v>0.9817997714299241</v>
+        <v>0.966776229514331</v>
       </c>
       <c r="AF3">
-        <v>0.9817997714299241</v>
+        <v>0.966776229514331</v>
       </c>
       <c r="AG3">
-        <v>0.9924257076354144</v>
+        <v>0.9846777152057785</v>
       </c>
       <c r="AH3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:36">
@@ -2132,94 +2132,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2502318013264258</v>
+        <v>0.2193119956081596</v>
       </c>
       <c r="E4">
-        <v>0.2502318013264258</v>
+        <v>0.2208946182786707</v>
       </c>
       <c r="F4">
-        <v>0.7062694023076</v>
+        <v>0.6134976036481004</v>
       </c>
       <c r="G4">
-        <v>0.8391307030216708</v>
+        <v>0.7339822083177584</v>
       </c>
       <c r="H4">
-        <v>0.8391307030216708</v>
+        <v>0.7415352532137688</v>
       </c>
       <c r="I4">
-        <v>0.8484678006758415</v>
+        <v>0.7580109745398506</v>
       </c>
       <c r="J4">
-        <v>0.8484678006758415</v>
+        <v>0.7596267369537366</v>
       </c>
       <c r="K4">
-        <v>0.8484678006758415</v>
+        <v>0.7602744604620197</v>
       </c>
       <c r="L4">
-        <v>0.8484678006758415</v>
+        <v>0.7602744604620197</v>
       </c>
       <c r="M4">
-        <v>0.8484678006758415</v>
+        <v>0.7602744604620197</v>
       </c>
       <c r="N4">
-        <v>0.8484678006758415</v>
+        <v>0.7602744604620197</v>
       </c>
       <c r="O4">
-        <v>0.9098000602404999</v>
+        <v>0.8205307413514432</v>
       </c>
       <c r="P4">
-        <v>0.9449231380851094</v>
+        <v>0.8587185720382028</v>
       </c>
       <c r="Q4">
-        <v>0.9449231380851094</v>
+        <v>0.8587185720382028</v>
       </c>
       <c r="R4">
-        <v>0.9449231380851094</v>
+        <v>0.8665275223609673</v>
       </c>
       <c r="S4">
-        <v>0.9523784760882765</v>
+        <v>0.8814187791434731</v>
       </c>
       <c r="T4">
-        <v>0.955680308486755</v>
+        <v>0.892812733622434</v>
       </c>
       <c r="U4">
-        <v>0.955680308486755</v>
+        <v>0.8928577656160598</v>
       </c>
       <c r="V4">
-        <v>0.955680308486755</v>
+        <v>0.8989897696866888</v>
       </c>
       <c r="W4">
-        <v>0.955680308486755</v>
+        <v>0.9001408826622929</v>
       </c>
       <c r="X4">
-        <v>0.955680308486755</v>
+        <v>0.9001408826622929</v>
       </c>
       <c r="Y4">
-        <v>0.955680308486755</v>
+        <v>0.9001408826622929</v>
       </c>
       <c r="Z4">
-        <v>0.9576681410838744</v>
+        <v>0.9104284333056688</v>
       </c>
       <c r="AA4">
-        <v>0.9576681410838744</v>
+        <v>0.9118428722330105</v>
       </c>
       <c r="AB4">
-        <v>0.9576681410838744</v>
+        <v>0.9177992744392363</v>
       </c>
       <c r="AC4">
-        <v>0.9576681410838744</v>
+        <v>0.9254707070034881</v>
       </c>
       <c r="AD4">
-        <v>0.959363645426804</v>
+        <v>0.9355121136966511</v>
       </c>
       <c r="AE4">
-        <v>0.9843979085478504</v>
+        <v>0.9652050395172835</v>
       </c>
       <c r="AF4">
-        <v>0.9843979085478504</v>
+        <v>0.969642331824058</v>
       </c>
       <c r="AG4">
-        <v>0.9843979085478504</v>
+        <v>0.9782490775963915</v>
       </c>
       <c r="AH4">
         <v>0.9999999999999999</v>
@@ -2242,103 +2242,103 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3678392964760315</v>
+        <v>0.3146589882964852</v>
       </c>
       <c r="E5">
-        <v>0.414670028091823</v>
+        <v>0.3625963338652118</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.7378822444292231</v>
       </c>
       <c r="G5">
-        <v>0.860994382266776</v>
+        <v>0.7514938159755131</v>
       </c>
       <c r="H5">
-        <v>0.8753689649922138</v>
+        <v>0.7724637896536461</v>
       </c>
       <c r="I5">
-        <v>0.8803531903415762</v>
+        <v>0.7856314433337503</v>
       </c>
       <c r="J5">
-        <v>0.8803531903415762</v>
+        <v>0.7856314433337503</v>
       </c>
       <c r="K5">
-        <v>0.8803531903415762</v>
+        <v>0.7856314433337503</v>
       </c>
       <c r="L5">
-        <v>0.8803531903415762</v>
+        <v>0.7871162716387509</v>
       </c>
       <c r="M5">
-        <v>0.8803531903415762</v>
+        <v>0.7871162716387509</v>
       </c>
       <c r="N5">
-        <v>0.8803531903415762</v>
+        <v>0.7927385787343011</v>
       </c>
       <c r="O5">
-        <v>0.9366350928525166</v>
+        <v>0.8485287734254566</v>
       </c>
       <c r="P5">
-        <v>0.9366350928525166</v>
+        <v>0.8565651812151569</v>
       </c>
       <c r="Q5">
-        <v>0.9366350928525166</v>
+        <v>0.8565651812151569</v>
       </c>
       <c r="R5">
-        <v>0.9370636815958718</v>
+        <v>0.8659476185109135</v>
       </c>
       <c r="S5">
-        <v>0.9370636815958718</v>
+        <v>0.8726357953828001</v>
       </c>
       <c r="T5">
-        <v>0.9555633980524366</v>
+        <v>0.8970332864722423</v>
       </c>
       <c r="U5">
-        <v>0.9555633980524366</v>
+        <v>0.8989559893080526</v>
       </c>
       <c r="V5">
-        <v>0.9555633980524366</v>
+        <v>0.9002012362018805</v>
       </c>
       <c r="W5">
-        <v>0.9555633980524366</v>
+        <v>0.9020445024747344</v>
       </c>
       <c r="X5">
-        <v>0.9555633980524366</v>
+        <v>0.9026827124123848</v>
       </c>
       <c r="Y5">
-        <v>0.9555633980524366</v>
+        <v>0.9072571752591494</v>
       </c>
       <c r="Z5">
-        <v>0.9587147335496936</v>
+        <v>0.9189019057346799</v>
       </c>
       <c r="AA5">
-        <v>0.9587147335496936</v>
+        <v>0.9189019057346799</v>
       </c>
       <c r="AB5">
-        <v>0.9659988964754151</v>
+        <v>0.9339805462098091</v>
       </c>
       <c r="AC5">
-        <v>0.9659988964754151</v>
+        <v>0.9339805462098091</v>
       </c>
       <c r="AD5">
-        <v>0.9757573238403919</v>
+        <v>0.9511150192951005</v>
       </c>
       <c r="AE5">
-        <v>0.9910416984158822</v>
+        <v>0.9728409266253214</v>
       </c>
       <c r="AF5">
-        <v>0.9910416984158822</v>
+        <v>0.9728409266253214</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999998</v>
+        <v>0.9893105861011924</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999998</v>
+        <v>0.9960690627570382</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:36">
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2842842859730206</v>
+        <v>0.2503307642664209</v>
       </c>
       <c r="F6">
-        <v>0.3752865437920872</v>
+        <v>0.3364170490871914</v>
       </c>
       <c r="G6">
-        <v>0.860838041152299</v>
+        <v>0.7577778293333501</v>
       </c>
       <c r="H6">
-        <v>0.8728729911365157</v>
+        <v>0.7767603875819405</v>
       </c>
       <c r="I6">
-        <v>0.8957571951763721</v>
+        <v>0.8049622721267286</v>
       </c>
       <c r="J6">
-        <v>0.910782183793981</v>
+        <v>0.8264856632895551</v>
       </c>
       <c r="K6">
-        <v>0.910782183793981</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="L6">
-        <v>0.910782183793981</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="M6">
-        <v>0.910782183793981</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="N6">
-        <v>0.910782183793981</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="O6">
-        <v>0.910782183793981</v>
+        <v>0.8330227968624256</v>
       </c>
       <c r="P6">
-        <v>0.9447496217069168</v>
+        <v>0.8706428357769948</v>
       </c>
       <c r="Q6">
-        <v>0.9477226520079194</v>
+        <v>0.8819248835572125</v>
       </c>
       <c r="R6">
-        <v>0.9477226520079194</v>
+        <v>0.8819248835572125</v>
       </c>
       <c r="S6">
-        <v>0.9477226520079194</v>
+        <v>0.8897627242772788</v>
       </c>
       <c r="T6">
-        <v>0.9477226520079194</v>
+        <v>0.8923379904682398</v>
       </c>
       <c r="U6">
-        <v>0.9585184435944867</v>
+        <v>0.910267554147617</v>
       </c>
       <c r="V6">
-        <v>0.9585184435944867</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="W6">
-        <v>0.9585184435944867</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="X6">
-        <v>0.9585184435944867</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="Y6">
-        <v>0.9585184435944867</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="Z6">
-        <v>0.9585184435944867</v>
+        <v>0.9135469023734165</v>
       </c>
       <c r="AA6">
-        <v>0.9585184435944867</v>
+        <v>0.9204874094777226</v>
       </c>
       <c r="AB6">
-        <v>0.9585184435944867</v>
+        <v>0.9204874094777226</v>
       </c>
       <c r="AC6">
-        <v>0.9701955028228385</v>
+        <v>0.9391658443607995</v>
       </c>
       <c r="AD6">
-        <v>0.9701955028228385</v>
+        <v>0.9391658443607995</v>
       </c>
       <c r="AE6">
-        <v>0.9771922947258911</v>
+        <v>0.9538671475992418</v>
       </c>
       <c r="AF6">
-        <v>0.9912339765692531</v>
+        <v>0.9745549581816384</v>
       </c>
       <c r="AG6">
-        <v>0.9912339765692531</v>
+        <v>0.9745549581816384</v>
       </c>
       <c r="AH6">
-        <v>0.9999999999999999</v>
+        <v>0.9907596940674943</v>
       </c>
       <c r="AI6">
-        <v>0.9999999999999999</v>
+        <v>0.995892117353925</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07454841270004955</v>
+        <v>0.07342986975253207</v>
       </c>
       <c r="E7">
-        <v>0.1824699232597687</v>
+        <v>0.1771345667313257</v>
       </c>
       <c r="F7">
-        <v>0.5597433194648631</v>
+        <v>0.5251852286927725</v>
       </c>
       <c r="G7">
-        <v>0.809408491338748</v>
+        <v>0.7574744782578564</v>
       </c>
       <c r="H7">
-        <v>0.8264022251381195</v>
+        <v>0.7786928941289464</v>
       </c>
       <c r="I7">
-        <v>0.8599781710121199</v>
+        <v>0.8149540731171908</v>
       </c>
       <c r="J7">
-        <v>0.8745146885390158</v>
+        <v>0.8339433942120164</v>
       </c>
       <c r="K7">
-        <v>0.8745146885390158</v>
+        <v>0.8339433942120164</v>
       </c>
       <c r="L7">
-        <v>0.8747074541354912</v>
+        <v>0.8399205995813005</v>
       </c>
       <c r="M7">
-        <v>0.8747074541354912</v>
+        <v>0.8399205995813005</v>
       </c>
       <c r="N7">
-        <v>0.8747074541354912</v>
+        <v>0.8399205995813005</v>
       </c>
       <c r="O7">
-        <v>0.923336988854194</v>
+        <v>0.8898378318171307</v>
       </c>
       <c r="P7">
-        <v>0.9336932240985234</v>
+        <v>0.9050349570422811</v>
       </c>
       <c r="Q7">
-        <v>0.9336932240985234</v>
+        <v>0.9050349570422811</v>
       </c>
       <c r="R7">
-        <v>0.9336932240985234</v>
+        <v>0.9050349570422811</v>
       </c>
       <c r="S7">
-        <v>0.9474259542959091</v>
+        <v>0.9232951123092922</v>
       </c>
       <c r="T7">
-        <v>0.9474259542959091</v>
+        <v>0.9232951123092922</v>
       </c>
       <c r="U7">
-        <v>0.963190460124467</v>
+        <v>0.943398418501486</v>
       </c>
       <c r="V7">
-        <v>0.963190460124467</v>
+        <v>0.943398418501486</v>
       </c>
       <c r="W7">
-        <v>0.963190460124467</v>
+        <v>0.943398418501486</v>
       </c>
       <c r="X7">
-        <v>0.963190460124467</v>
+        <v>0.943398418501486</v>
       </c>
       <c r="Y7">
-        <v>0.963190460124467</v>
+        <v>0.943398418501486</v>
       </c>
       <c r="Z7">
-        <v>0.963190460124467</v>
+        <v>0.943398418501486</v>
       </c>
       <c r="AA7">
-        <v>0.9633750280718106</v>
+        <v>0.9493681872698239</v>
       </c>
       <c r="AB7">
-        <v>0.9633750280718106</v>
+        <v>0.9493681872698239</v>
       </c>
       <c r="AC7">
-        <v>0.9701548952930488</v>
+        <v>0.9613209650732307</v>
       </c>
       <c r="AD7">
-        <v>0.982381257353579</v>
+        <v>0.9782145994594349</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ7">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,100 +2575,100 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2945667478573543</v>
+        <v>0.330567670488857</v>
       </c>
       <c r="F8">
-        <v>0.3060664387909005</v>
+        <v>0.330567670488857</v>
       </c>
       <c r="G8">
-        <v>0.6557996983511711</v>
+        <v>0.7269698815690198</v>
       </c>
       <c r="H8">
-        <v>0.8454939246708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="I8">
-        <v>0.8454939246708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="J8">
-        <v>0.8454939246708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="K8">
-        <v>0.8454939246708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="L8">
-        <v>0.8454939246708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="M8">
-        <v>0.8854509137286524</v>
+        <v>0.9591067224391906</v>
       </c>
       <c r="N8">
-        <v>0.8854509137286524</v>
+        <v>0.9591067224391906</v>
       </c>
       <c r="O8">
-        <v>0.8854509137286524</v>
+        <v>0.9591067224391906</v>
       </c>
       <c r="P8">
-        <v>0.9030161803143708</v>
+        <v>0.9591067224391906</v>
       </c>
       <c r="Q8">
-        <v>0.9429731693722232</v>
+        <v>0.9858285273258139</v>
       </c>
       <c r="R8">
-        <v>0.9678106191839539</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="S8">
-        <v>0.9678106191839539</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="T8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="U8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="V8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="W8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="X8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="Y8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="Z8">
-        <v>0.9704369798462961</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="AA8">
-        <v>0.9778318324351598</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="AB8">
-        <v>0.9778318324351598</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="AC8">
-        <v>0.9778318324351598</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="AD8">
-        <v>0.9778318324351598</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="AE8">
-        <v>0.9778318324351598</v>
+        <v>0.9945069959656031</v>
       </c>
       <c r="AF8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:36">
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3226212138074034</v>
+        <v>0.3075348122009955</v>
       </c>
       <c r="E9">
-        <v>0.3226212138074034</v>
+        <v>0.3075348122009955</v>
       </c>
       <c r="F9">
-        <v>0.7948158762742028</v>
+        <v>0.7551697866067364</v>
       </c>
       <c r="G9">
-        <v>0.8610922532561669</v>
+        <v>0.8225954514859021</v>
       </c>
       <c r="H9">
-        <v>0.8703710298407431</v>
+        <v>0.8366334788363018</v>
       </c>
       <c r="I9">
-        <v>0.8703710298407431</v>
+        <v>0.8366334788363018</v>
       </c>
       <c r="J9">
-        <v>0.9093440762585535</v>
+        <v>0.87848507910004</v>
       </c>
       <c r="K9">
-        <v>0.9093440762585535</v>
+        <v>0.87848507910004</v>
       </c>
       <c r="L9">
-        <v>0.9181756596920398</v>
+        <v>0.8921042364332938</v>
       </c>
       <c r="M9">
-        <v>0.9181756596920398</v>
+        <v>0.8921042364332938</v>
       </c>
       <c r="N9">
-        <v>0.9181756596920398</v>
+        <v>0.8921042364332938</v>
       </c>
       <c r="O9">
-        <v>0.9486673450767918</v>
+        <v>0.9260116456183446</v>
       </c>
       <c r="P9">
-        <v>0.9874647559426692</v>
+        <v>0.9676987342689904</v>
       </c>
       <c r="Q9">
-        <v>0.9874647559426692</v>
+        <v>0.9676987342689904</v>
       </c>
       <c r="R9">
-        <v>0.9874647559426692</v>
+        <v>0.9676987342689904</v>
       </c>
       <c r="S9">
-        <v>0.9874647559426692</v>
+        <v>0.9681968684710439</v>
       </c>
       <c r="T9">
-        <v>0.9874647559426692</v>
+        <v>0.9681968684710439</v>
       </c>
       <c r="U9">
-        <v>0.9874647559426692</v>
+        <v>0.9685188610132767</v>
       </c>
       <c r="V9">
-        <v>0.9874647559426692</v>
+        <v>0.9685188610132767</v>
       </c>
       <c r="W9">
-        <v>0.9874647559426692</v>
+        <v>0.9688342190075536</v>
       </c>
       <c r="X9">
-        <v>0.9874647559426692</v>
+        <v>0.9688342190075536</v>
       </c>
       <c r="Y9">
-        <v>0.9874647559426692</v>
+        <v>0.9688342190075536</v>
       </c>
       <c r="Z9">
-        <v>0.9874647559426692</v>
+        <v>0.973287903501287</v>
       </c>
       <c r="AA9">
-        <v>0.9874647559426692</v>
+        <v>0.9737265488479788</v>
       </c>
       <c r="AB9">
-        <v>0.9874647559426692</v>
+        <v>0.9737330202047748</v>
       </c>
       <c r="AC9">
-        <v>0.9874647559426692</v>
+        <v>0.9737330202047748</v>
       </c>
       <c r="AD9">
-        <v>0.9874647559426692</v>
+        <v>0.9764485026105415</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0.9935367479323561</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0.9935367479323561</v>
       </c>
       <c r="AG9">
-        <v>1</v>
+        <v>0.9958674018995746</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07185568370362862</v>
+        <v>0.06927810299631917</v>
       </c>
       <c r="E10">
-        <v>0.1962765758710832</v>
+        <v>0.1841339596578233</v>
       </c>
       <c r="F10">
-        <v>0.5380106152868436</v>
+        <v>0.4874156855005645</v>
       </c>
       <c r="G10">
-        <v>0.740758955598448</v>
+        <v>0.6701869797883339</v>
       </c>
       <c r="H10">
-        <v>0.740758955598448</v>
+        <v>0.6701869797883339</v>
       </c>
       <c r="I10">
-        <v>0.7527638480357552</v>
+        <v>0.6875702135218393</v>
       </c>
       <c r="J10">
-        <v>0.7780119111483187</v>
+        <v>0.7164362129176974</v>
       </c>
       <c r="K10">
-        <v>0.7780119111483187</v>
+        <v>0.7164362129176974</v>
       </c>
       <c r="L10">
-        <v>0.8146021486946492</v>
+        <v>0.7551366797774398</v>
       </c>
       <c r="M10">
-        <v>0.8146021486946492</v>
+        <v>0.7551366797774398</v>
       </c>
       <c r="N10">
-        <v>0.8252566671419083</v>
+        <v>0.7713490437498819</v>
       </c>
       <c r="O10">
-        <v>0.8499638913259828</v>
+        <v>0.7997460975413071</v>
       </c>
       <c r="P10">
-        <v>0.9375915756411127</v>
+        <v>0.8826996406183566</v>
       </c>
       <c r="Q10">
-        <v>0.9667694719581256</v>
+        <v>0.9149730833588163</v>
       </c>
       <c r="R10">
-        <v>0.9667694719581256</v>
+        <v>0.9149730833588163</v>
       </c>
       <c r="S10">
-        <v>0.9667694719581256</v>
+        <v>0.9153386357753022</v>
       </c>
       <c r="T10">
-        <v>0.9667694719581256</v>
+        <v>0.9153386357753022</v>
       </c>
       <c r="U10">
-        <v>0.9667694719581256</v>
+        <v>0.9153386357753022</v>
       </c>
       <c r="V10">
-        <v>0.9667694719581256</v>
+        <v>0.9179789479778366</v>
       </c>
       <c r="W10">
-        <v>0.9695208809220447</v>
+        <v>0.9273387570428148</v>
       </c>
       <c r="X10">
-        <v>0.9695208809220447</v>
+        <v>0.9273387570428148</v>
       </c>
       <c r="Y10">
-        <v>0.9695208809220447</v>
+        <v>0.9273387570428148</v>
       </c>
       <c r="Z10">
-        <v>0.9725027546394326</v>
+        <v>0.9368983953497778</v>
       </c>
       <c r="AA10">
-        <v>0.9725027546394326</v>
+        <v>0.9432565282365597</v>
       </c>
       <c r="AB10">
-        <v>0.9725027546394326</v>
+        <v>0.9432565282365597</v>
       </c>
       <c r="AC10">
-        <v>0.9747735336183758</v>
+        <v>0.9521995971096977</v>
       </c>
       <c r="AD10">
-        <v>0.9747735336183758</v>
+        <v>0.9521995971096977</v>
       </c>
       <c r="AE10">
-        <v>0.9872937825700274</v>
+        <v>0.9700296813922066</v>
       </c>
       <c r="AF10">
-        <v>0.9872937825700274</v>
+        <v>0.9762280189969659</v>
       </c>
       <c r="AG10">
-        <v>0.9872937825700274</v>
+        <v>0.9762280189969659</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>0.9942193511036936</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08235159196451732</v>
+        <v>0.07628472026848854</v>
       </c>
       <c r="E11">
-        <v>0.2301161694926673</v>
+        <v>0.2053203941975102</v>
       </c>
       <c r="F11">
-        <v>0.5348134648230478</v>
+        <v>0.4609112230896689</v>
       </c>
       <c r="G11">
-        <v>0.7222903379064113</v>
+        <v>0.6219720590646671</v>
       </c>
       <c r="H11">
-        <v>0.7222903379064113</v>
+        <v>0.6219720590646671</v>
       </c>
       <c r="I11">
-        <v>0.7246795148870349</v>
+        <v>0.6337727382661659</v>
       </c>
       <c r="J11">
-        <v>0.7374703843862844</v>
+        <v>0.6539616479591072</v>
       </c>
       <c r="K11">
-        <v>0.7374703843862844</v>
+        <v>0.6544319390233342</v>
       </c>
       <c r="L11">
-        <v>0.7509015921700465</v>
+        <v>0.6751372363246736</v>
       </c>
       <c r="M11">
-        <v>0.7509015921700465</v>
+        <v>0.6753161484407263</v>
       </c>
       <c r="N11">
-        <v>0.7915722837606722</v>
+        <v>0.7179881658917661</v>
       </c>
       <c r="O11">
-        <v>0.8068114574979354</v>
+        <v>0.7401514600634697</v>
       </c>
       <c r="P11">
-        <v>0.9236131501121371</v>
+        <v>0.8442177537812298</v>
       </c>
       <c r="Q11">
-        <v>0.9287744319213013</v>
+        <v>0.8582539397722824</v>
       </c>
       <c r="R11">
-        <v>0.9287744319213013</v>
+        <v>0.8582539397722824</v>
       </c>
       <c r="S11">
-        <v>0.9287744319213013</v>
+        <v>0.8582627578285952</v>
       </c>
       <c r="T11">
-        <v>0.9287744319213013</v>
+        <v>0.8582627578285952</v>
       </c>
       <c r="U11">
-        <v>0.9287744319213013</v>
+        <v>0.8582627578285952</v>
       </c>
       <c r="V11">
-        <v>0.9287744319213013</v>
+        <v>0.865413341450347</v>
       </c>
       <c r="W11">
-        <v>0.949570238080349</v>
+        <v>0.8920576672836468</v>
       </c>
       <c r="X11">
-        <v>0.949570238080349</v>
+        <v>0.8920576672836468</v>
       </c>
       <c r="Y11">
-        <v>0.949570238080349</v>
+        <v>0.893096999974336</v>
       </c>
       <c r="Z11">
-        <v>0.9521200043976062</v>
+        <v>0.90502718313567</v>
       </c>
       <c r="AA11">
-        <v>0.9521200043976062</v>
+        <v>0.9125851295134344</v>
       </c>
       <c r="AB11">
-        <v>0.9521200043976062</v>
+        <v>0.9125851295134344</v>
       </c>
       <c r="AC11">
-        <v>0.9527632855238273</v>
+        <v>0.9229778669963563</v>
       </c>
       <c r="AD11">
-        <v>0.9527632855238273</v>
+        <v>0.9253278124812179</v>
       </c>
       <c r="AE11">
-        <v>0.9551242776677906</v>
+        <v>0.9371057626022476</v>
       </c>
       <c r="AF11">
-        <v>0.9551242776677906</v>
+        <v>0.9426348608314933</v>
       </c>
       <c r="AG11">
-        <v>0.9551242776677906</v>
+        <v>0.944062945517386</v>
       </c>
       <c r="AH11">
-        <v>0.9845409891800881</v>
+        <v>0.9776594227451325</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ11">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3066,16 +3066,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.6162724027787353</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.56298058909924</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8259059483050833</v>
+        <v>0.7214841649471382</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7062694023076</v>
+        <v>0.6134976036481004</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.7378822444292231</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.860838041152299</v>
+        <v>0.7577778293333501</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5597433194648631</v>
+        <v>0.5251852286927725</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6557996983511711</v>
+        <v>0.7269698815690198</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7948158762742028</v>
+        <v>0.7551697866067364</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3394,16 +3394,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.6701869797883339</v>
+      </c>
+      <c r="G10">
         <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.5380106152868436</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
       </c>
       <c r="H10">
         <v>58</v>
@@ -3435,16 +3435,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.6219720590646671</v>
+      </c>
+      <c r="G11">
         <v>5</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.5348134648230478</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
       </c>
       <c r="H11">
         <v>58</v>
@@ -3530,16 +3530,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7134830950718214</v>
+        <v>0.7759615928775406</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8259059483050833</v>
+        <v>0.7214841649471382</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -3612,16 +3612,16 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7339822083177584</v>
+      </c>
+      <c r="G4">
         <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7062694023076</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.7378822444292231</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.860838041152299</v>
+        <v>0.7577778293333501</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3741,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.809408491338748</v>
+        <v>0.7574744782578564</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -3776,16 +3776,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8454939246708</v>
+        <v>0.7269698815690198</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>58</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7948158762742028</v>
+        <v>0.7551697866067364</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -3858,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.740758955598448</v>
+        <v>0.7164362129176974</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>58</v>
@@ -3899,16 +3899,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7222903379064113</v>
+        <v>0.7179881658917661</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>58</v>
@@ -3994,16 +3994,16 @@
         <v>1</v>
       </c>
       <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.8304787234160618</v>
+      </c>
+      <c r="G2">
         <v>14</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0.8661242095414127</v>
-      </c>
-      <c r="G2">
-        <v>13</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -4035,16 +4035,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8259059483050833</v>
+        <v>0.847320226868585</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -4076,16 +4076,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8391307030216708</v>
+        <v>0.8205307413514432</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -4117,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8554758866734141</v>
+        <v>0.8485287734254566</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -4158,16 +4158,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8049622721267286</v>
+      </c>
+      <c r="G6">
         <v>6</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.860838041152299</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -4199,16 +4199,16 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.809408491338748</v>
+        <v>0.8149540731171908</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>58</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8454939246708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8610922532561669</v>
+        <v>0.8225954514859021</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -4322,16 +4322,16 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8146021486946492</v>
+        <v>0.8826996406183566</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>58</v>
@@ -4363,16 +4363,16 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0.8442177537812298</v>
+      </c>
+      <c r="G11">
         <v>14</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.8068114574979354</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
       </c>
       <c r="H11">
         <v>58</v>
@@ -4458,16 +4458,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9222419715904385</v>
+        <v>0.90000806673205</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>58</v>
@@ -4499,16 +4499,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9315366378919006</v>
+        <v>0.9025147303122969</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>58</v>
@@ -4540,16 +4540,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9098000602404999</v>
+        <v>0.9001408826622929</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>58</v>
@@ -4581,16 +4581,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9366350928525166</v>
+        <v>0.9002012362018805</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>58</v>
@@ -4622,16 +4622,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.910782183793981</v>
+        <v>0.910267554147617</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>58</v>
@@ -4663,16 +4663,16 @@
         <v>1</v>
       </c>
       <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.9050349570422811</v>
+      </c>
+      <c r="G7">
         <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.923336988854194</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
       </c>
       <c r="H7">
         <v>58</v>
@@ -4704,16 +4704,16 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9030161803143708</v>
+        <v>0.9323849175525672</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>58</v>
@@ -4745,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9093440762585535</v>
+        <v>0.9260116456183446</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>58</v>
@@ -4786,16 +4786,16 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.9149730833588163</v>
+      </c>
+      <c r="G10">
         <v>15</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.9375915756411127</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
       </c>
       <c r="H10">
         <v>58</v>
@@ -4827,16 +4827,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9236131501121371</v>
+        <v>0.90502718313567</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="H11">
         <v>58</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.007966266569831246</v>
       </c>
       <c r="E6">
-        <v>0.2503307642664209</v>
+        <v>0.2493609080142864</v>
       </c>
       <c r="F6">
-        <v>0.08608628482077046</v>
+        <v>0.08575276080584916</v>
       </c>
       <c r="G6">
-        <v>0.4213607802461588</v>
+        <v>0.4197283025587936</v>
       </c>
       <c r="H6">
-        <v>0.01898255824859036</v>
+        <v>0.01890901414044667</v>
       </c>
       <c r="I6">
-        <v>0.02820188454478797</v>
+        <v>0.02809262200916679</v>
       </c>
       <c r="J6">
-        <v>0.02152339116282657</v>
+        <v>0.02144000310803604</v>
       </c>
       <c r="K6">
-        <v>0.003420034168001239</v>
+        <v>0.003406783932737229</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1162,28 +1162,28 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.003117099404869358</v>
+        <v>0.003105022829482404</v>
       </c>
       <c r="P6">
-        <v>0.0376200389145691</v>
+        <v>0.03747428763204592</v>
       </c>
       <c r="Q6">
-        <v>0.01128204778021782</v>
+        <v>0.01123833775277237</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.007837840720066248</v>
+        <v>0.00780747458089887</v>
       </c>
       <c r="T6">
-        <v>0.002575266190961002</v>
+        <v>0.002565288839501491</v>
       </c>
       <c r="U6">
-        <v>0.01792956367937711</v>
+        <v>0.01786009918713444</v>
       </c>
       <c r="V6">
-        <v>0.001408821707461609</v>
+        <v>0.001403363510802767</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1195,37 +1195,37 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00187052651833792</v>
+        <v>0.001863279539150565</v>
       </c>
       <c r="AA6">
-        <v>0.006940507104306092</v>
+        <v>0.006913617503949455</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01867843488307695</v>
+        <v>0.01860606903981144</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01470130323844228</v>
+        <v>0.0146443459926874</v>
       </c>
       <c r="AF6">
-        <v>0.02068781058239652</v>
+        <v>0.02060765981668817</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01620473588585596</v>
+        <v>0.01614195389236371</v>
       </c>
       <c r="AI6">
-        <v>0.005132423286430712</v>
+        <v>0.005112538743563869</v>
       </c>
       <c r="AJ6">
-        <v>0.004107882646074946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2352,100 +2352,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.007966266569831246</v>
       </c>
       <c r="E6">
-        <v>0.2503307642664209</v>
+        <v>0.2573271745841177</v>
       </c>
       <c r="F6">
-        <v>0.3364170490871914</v>
+        <v>0.3430799353899668</v>
       </c>
       <c r="G6">
-        <v>0.7577778293333501</v>
+        <v>0.7628082379487604</v>
       </c>
       <c r="H6">
-        <v>0.7767603875819405</v>
+        <v>0.7817172520892071</v>
       </c>
       <c r="I6">
-        <v>0.8049622721267286</v>
+        <v>0.8098098740983739</v>
       </c>
       <c r="J6">
-        <v>0.8264856632895551</v>
+        <v>0.83124987720641</v>
       </c>
       <c r="K6">
-        <v>0.8299056974575563</v>
+        <v>0.8346566611391472</v>
       </c>
       <c r="L6">
-        <v>0.8299056974575563</v>
+        <v>0.8346566611391472</v>
       </c>
       <c r="M6">
-        <v>0.8299056974575563</v>
+        <v>0.8346566611391472</v>
       </c>
       <c r="N6">
-        <v>0.8299056974575563</v>
+        <v>0.8346566611391472</v>
       </c>
       <c r="O6">
-        <v>0.8330227968624256</v>
+        <v>0.8377616839686296</v>
       </c>
       <c r="P6">
-        <v>0.8706428357769948</v>
+        <v>0.8752359716006756</v>
       </c>
       <c r="Q6">
-        <v>0.8819248835572125</v>
+        <v>0.886474309353448</v>
       </c>
       <c r="R6">
-        <v>0.8819248835572125</v>
+        <v>0.886474309353448</v>
       </c>
       <c r="S6">
-        <v>0.8897627242772788</v>
+        <v>0.8942817839343469</v>
       </c>
       <c r="T6">
-        <v>0.8923379904682398</v>
+        <v>0.8968470727738483</v>
       </c>
       <c r="U6">
-        <v>0.910267554147617</v>
+        <v>0.9147071719609828</v>
       </c>
       <c r="V6">
-        <v>0.9116763758550785</v>
+        <v>0.9161105354717856</v>
       </c>
       <c r="W6">
-        <v>0.9116763758550785</v>
+        <v>0.9161105354717856</v>
       </c>
       <c r="X6">
-        <v>0.9116763758550785</v>
+        <v>0.9161105354717856</v>
       </c>
       <c r="Y6">
-        <v>0.9116763758550785</v>
+        <v>0.9161105354717856</v>
       </c>
       <c r="Z6">
-        <v>0.9135469023734165</v>
+        <v>0.9179738150109361</v>
       </c>
       <c r="AA6">
-        <v>0.9204874094777226</v>
+        <v>0.9248874325148856</v>
       </c>
       <c r="AB6">
-        <v>0.9204874094777226</v>
+        <v>0.9248874325148856</v>
       </c>
       <c r="AC6">
-        <v>0.9391658443607995</v>
+        <v>0.943493501554697</v>
       </c>
       <c r="AD6">
-        <v>0.9391658443607995</v>
+        <v>0.943493501554697</v>
       </c>
       <c r="AE6">
-        <v>0.9538671475992418</v>
+        <v>0.9581378475473844</v>
       </c>
       <c r="AF6">
-        <v>0.9745549581816384</v>
+        <v>0.9787455073640726</v>
       </c>
       <c r="AG6">
-        <v>0.9745549581816384</v>
+        <v>0.9787455073640726</v>
       </c>
       <c r="AH6">
-        <v>0.9907596940674943</v>
+        <v>0.9948874612564363</v>
       </c>
       <c r="AI6">
-        <v>0.995892117353925</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7577778293333501</v>
+        <v>0.7628082379487604</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7577778293333501</v>
+        <v>0.7628082379487604</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8049622721267286</v>
+        <v>0.8098098740983739</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.910267554147617</v>
+        <v>0.9147071719609828</v>
       </c>
       <c r="G6">
         <v>18</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007966266569831246</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2493609080142864</v>
+        <v>0.2503307642664209</v>
       </c>
       <c r="F6">
-        <v>0.08575276080584916</v>
+        <v>0.08608628482077046</v>
       </c>
       <c r="G6">
-        <v>0.4197283025587936</v>
+        <v>0.4213607802461588</v>
       </c>
       <c r="H6">
-        <v>0.01890901414044667</v>
+        <v>0.01898255824859036</v>
       </c>
       <c r="I6">
-        <v>0.02809262200916679</v>
+        <v>0.02820188454478797</v>
       </c>
       <c r="J6">
-        <v>0.02144000310803604</v>
+        <v>0.02152339116282657</v>
       </c>
       <c r="K6">
-        <v>0.003406783932737229</v>
+        <v>0.003420034168001239</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1162,28 +1162,28 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.003105022829482404</v>
+        <v>0.003117099404869358</v>
       </c>
       <c r="P6">
-        <v>0.03747428763204592</v>
+        <v>0.0376200389145691</v>
       </c>
       <c r="Q6">
-        <v>0.01123833775277237</v>
+        <v>0.01128204778021782</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.00780747458089887</v>
+        <v>0.007837840720066248</v>
       </c>
       <c r="T6">
-        <v>0.002565288839501491</v>
+        <v>0.002575266190961002</v>
       </c>
       <c r="U6">
-        <v>0.01786009918713444</v>
+        <v>0.01792956367937711</v>
       </c>
       <c r="V6">
-        <v>0.001403363510802767</v>
+        <v>0.001408821707461609</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1195,37 +1195,37 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.001863279539150565</v>
+        <v>0.00187052651833792</v>
       </c>
       <c r="AA6">
-        <v>0.006913617503949455</v>
+        <v>0.006940507104306092</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01860606903981144</v>
+        <v>0.01867843488307695</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0146443459926874</v>
+        <v>0.01470130323844228</v>
       </c>
       <c r="AF6">
-        <v>0.02060765981668817</v>
+        <v>0.02068781058239652</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01614195389236371</v>
+        <v>0.01620473588585596</v>
       </c>
       <c r="AI6">
-        <v>0.005112538743563869</v>
+        <v>0.005132423286430712</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>0.004107882646074946</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2352,100 +2352,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.007966266569831246</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2573271745841177</v>
+        <v>0.2503307642664209</v>
       </c>
       <c r="F6">
-        <v>0.3430799353899668</v>
+        <v>0.3364170490871914</v>
       </c>
       <c r="G6">
-        <v>0.7628082379487604</v>
+        <v>0.7577778293333501</v>
       </c>
       <c r="H6">
-        <v>0.7817172520892071</v>
+        <v>0.7767603875819405</v>
       </c>
       <c r="I6">
-        <v>0.8098098740983739</v>
+        <v>0.8049622721267286</v>
       </c>
       <c r="J6">
-        <v>0.83124987720641</v>
+        <v>0.8264856632895551</v>
       </c>
       <c r="K6">
-        <v>0.8346566611391472</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="L6">
-        <v>0.8346566611391472</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="M6">
-        <v>0.8346566611391472</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="N6">
-        <v>0.8346566611391472</v>
+        <v>0.8299056974575563</v>
       </c>
       <c r="O6">
-        <v>0.8377616839686296</v>
+        <v>0.8330227968624256</v>
       </c>
       <c r="P6">
-        <v>0.8752359716006756</v>
+        <v>0.8706428357769948</v>
       </c>
       <c r="Q6">
-        <v>0.886474309353448</v>
+        <v>0.8819248835572125</v>
       </c>
       <c r="R6">
-        <v>0.886474309353448</v>
+        <v>0.8819248835572125</v>
       </c>
       <c r="S6">
-        <v>0.8942817839343469</v>
+        <v>0.8897627242772788</v>
       </c>
       <c r="T6">
-        <v>0.8968470727738483</v>
+        <v>0.8923379904682398</v>
       </c>
       <c r="U6">
-        <v>0.9147071719609828</v>
+        <v>0.910267554147617</v>
       </c>
       <c r="V6">
-        <v>0.9161105354717856</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="W6">
-        <v>0.9161105354717856</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="X6">
-        <v>0.9161105354717856</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="Y6">
-        <v>0.9161105354717856</v>
+        <v>0.9116763758550785</v>
       </c>
       <c r="Z6">
-        <v>0.9179738150109361</v>
+        <v>0.9135469023734165</v>
       </c>
       <c r="AA6">
-        <v>0.9248874325148856</v>
+        <v>0.9204874094777226</v>
       </c>
       <c r="AB6">
-        <v>0.9248874325148856</v>
+        <v>0.9204874094777226</v>
       </c>
       <c r="AC6">
-        <v>0.943493501554697</v>
+        <v>0.9391658443607995</v>
       </c>
       <c r="AD6">
-        <v>0.943493501554697</v>
+        <v>0.9391658443607995</v>
       </c>
       <c r="AE6">
-        <v>0.9581378475473844</v>
+        <v>0.9538671475992418</v>
       </c>
       <c r="AF6">
-        <v>0.9787455073640726</v>
+        <v>0.9745549581816384</v>
       </c>
       <c r="AG6">
-        <v>0.9787455073640726</v>
+        <v>0.9745549581816384</v>
       </c>
       <c r="AH6">
-        <v>0.9948874612564363</v>
+        <v>0.9907596940674943</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.995892117353925</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7628082379487604</v>
+        <v>0.7577778293333501</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7628082379487604</v>
+        <v>0.7577778293333501</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8098098740983739</v>
+        <v>0.8049622721267286</v>
       </c>
       <c r="G6">
         <v>6</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9147071719609828</v>
+        <v>0.910267554147617</v>
       </c>
       <c r="G6">
         <v>18</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/58_11R22.xlsx
@@ -159,40 +159,43 @@
     <t>signal segment 10</t>
   </si>
   <si>
+    <t>First_Noticeable_Increase_Cumulative_Value</t>
+  </si>
+  <si>
+    <t>First_Noticeable_Increase_Index</t>
+  </si>
+  <si>
     <t>Intensity_Threshold</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Index</t>
+    <t>Point_Exceeds_Cumulative_Value</t>
   </si>
   <si>
     <t>Point_Exceeds_Index</t>
   </si>
   <si>
-    <t>First_Noticeable_Increase_Cumulative_Value</t>
-  </si>
-  <si>
-    <t>Point_Exceeds_Cumulative_Value</t>
+    <t>Pressure</t>
   </si>
   <si>
     <t>Pulse_Width</t>
   </si>
   <si>
+    <t>Rim</t>
+  </si>
+  <si>
+    <t>TireSize</t>
+  </si>
+  <si>
     <t>Tire_Number</t>
   </si>
   <si>
-    <t>Pressure</t>
-  </si>
-  <si>
-    <t>TireSize</t>
-  </si>
-  <si>
     <t>Tire_Type</t>
   </si>
   <si>
     <t>Wear</t>
   </si>
   <si>
-    <t>Rim</t>
+    <t>Ir</t>
   </si>
   <si>
     <t>11R22.5</t>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>50%</t>
-  </si>
-  <si>
-    <t>Ir</t>
   </si>
 </sst>
 </file>
@@ -689,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1592075617089303</v>
+        <v>0.2103980245946162</v>
       </c>
       <c r="E2">
-        <v>0.03823523833284777</v>
+        <v>0.01376520558725563</v>
       </c>
       <c r="F2">
-        <v>0.2874547106315196</v>
+        <v>0.4188556099210405</v>
       </c>
       <c r="G2">
-        <v>0.1313748921054377</v>
+        <v>0.165157790035996</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003144626180924147</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005787637745427417</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -716,37 +716,37 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.009041528353817442</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.02387414032741081</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.1178412574912254</v>
+        <v>0.1431597275755846</v>
       </c>
       <c r="P2">
-        <v>0.05451713053852118</v>
+        <v>0.0402303860006502</v>
       </c>
       <c r="Q2">
-        <v>0.002497438167938582</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.01222959196709713</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.02221260293363519</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.009906552319076722</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.006939517974759097</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.005512484562205276</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>8.959972266447644E-05</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -755,34 +755,34 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.01014155566861182</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.001168223474720481</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.005760862439688418</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.01328106903250058</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.01083991285762299</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.02031461270195755</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.007329755439671342</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.005654245518567836</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.03495491972433259</v>
+        <v>0.008433256284857023</v>
       </c>
       <c r="AI2">
-        <v>0.0006883320788882887</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,22 +799,22 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3191729523797016</v>
+        <v>0.4174782411457238</v>
       </c>
       <c r="E3">
-        <v>0.005600351008586421</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3967108615588501</v>
+        <v>0.5293314766841046</v>
       </c>
       <c r="G3">
-        <v>0.03992307118559128</v>
+        <v>0.01464299492954925</v>
       </c>
       <c r="H3">
-        <v>0.01549959913266868</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01304337039040468</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -823,73 +823,73 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.620268599347979E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0008000255620156936</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.05649379296477311</v>
+        <v>0.03854728724062231</v>
       </c>
       <c r="P3">
-        <v>0.01468941442006071</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.006197714382339354</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.006715624774430327</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.02759174986688153</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.001625291014004356</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.003003001501132451</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.002559736786968381</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0001324660084132898</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.002227545500531473</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0100731061662551</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.01262210849598524</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0009893414123679173</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0107548143532181</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.02027408796315765</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.01790148569144757</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.01532228479422175</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,28 +909,28 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2193119956081596</v>
+        <v>0.2778283313596694</v>
       </c>
       <c r="E4">
-        <v>0.001582622670511003</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3926029853694297</v>
+        <v>0.5316629814377316</v>
       </c>
       <c r="G4">
-        <v>0.1204846046696581</v>
+        <v>0.1330671049879969</v>
       </c>
       <c r="H4">
-        <v>0.007553044896010359</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01647572132608177</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001615762413886017</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0006477235082831057</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -942,31 +942,31 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0602562808894235</v>
+        <v>0.04484534855042763</v>
       </c>
       <c r="P4">
-        <v>0.03818783068675956</v>
+        <v>0.01251973633783982</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.007808950322764493</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.01489125678250582</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.01139395447896083</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.50319936258416E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.006132004070629013</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001151112975604126</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -975,31 +975,31 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01028755064337597</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0014144389273417</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.005956402206225784</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.007671432564251818</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01004140669316303</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.02969292582063238</v>
+        <v>7.649732633441123E-05</v>
       </c>
       <c r="AF4">
-        <v>0.004437292306774425</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.008606745772333467</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.02175092240360841</v>
+        <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1019,22 +1019,22 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3146589882964852</v>
+        <v>0.4222752828537123</v>
       </c>
       <c r="E5">
-        <v>0.04793734556872665</v>
+        <v>0.02697935055694904</v>
       </c>
       <c r="F5">
-        <v>0.3752859105640113</v>
+        <v>0.512127667965507</v>
       </c>
       <c r="G5">
-        <v>0.01361157154629005</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02096997367813301</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01316765368010423</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1043,76 +1043,76 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.001484828305000469</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.005622307095550214</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05579019469115556</v>
+        <v>0.03861769862383162</v>
       </c>
       <c r="P5">
-        <v>0.008036407789700231</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.009382437295756583</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.006688176871886563</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.02439749108944225</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.001922702835810308</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.001245246893827866</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.001843266272853867</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0006382099376503576</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.004574462846764498</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01164473047553044</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01507864047512919</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01713447308529133</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.02172590733022093</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01646965947587097</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.006758476655845858</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.003930937242962128</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2503307642664209</v>
+        <v>0.3260571843638905</v>
       </c>
       <c r="F6">
-        <v>0.08608628482077046</v>
+        <v>0.08340648727012302</v>
       </c>
       <c r="G6">
-        <v>0.4213607802461588</v>
+        <v>0.5787326638777963</v>
       </c>
       <c r="H6">
-        <v>0.01898255824859036</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.02820188454478797</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02152339116282657</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.003420034168001239</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1162,28 +1162,28 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.003117099404869358</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0376200389145691</v>
+        <v>0.01180366448819021</v>
       </c>
       <c r="Q6">
-        <v>0.01128204778021782</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.007837840720066248</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.002575266190961002</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.01792956367937711</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.001408821707461609</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1195,37 +1195,37 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00187052651833792</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.006940507104306092</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01867843488307695</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.01470130323844228</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.02068781058239652</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01620473588585596</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.005132423286430712</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.004107882646074946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1239,31 +1239,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07342986975253207</v>
+        <v>0.06699532036295675</v>
       </c>
       <c r="E7">
-        <v>0.1037046969787936</v>
+        <v>0.1119131555792793</v>
       </c>
       <c r="F7">
-        <v>0.3480506619614468</v>
+        <v>0.4744417906343321</v>
       </c>
       <c r="G7">
-        <v>0.232289249565084</v>
+        <v>0.3026901235622859</v>
       </c>
       <c r="H7">
-        <v>0.02121841587109001</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.03626117898824441</v>
+        <v>0.01184927066036741</v>
       </c>
       <c r="J7">
-        <v>0.01898932109482549</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.005977205369284188</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04991723223583025</v>
+        <v>0.03211033920077846</v>
       </c>
       <c r="P7">
-        <v>0.01519712522515039</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1284,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.01826015526701108</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0.02010330619219379</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.00596976876833792</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.01195277780340683</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0.0168936343862042</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>0.02178540054056482</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1352,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.330567670488857</v>
+        <v>0.3414953432354464</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3964022110801627</v>
+        <v>0.4113291601786362</v>
       </c>
       <c r="H8">
-        <v>0.2054150359835475</v>
+        <v>0.2087400131381643</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.02672180488662333</v>
+        <v>0.01919163507812681</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.02672180488662333</v>
+        <v>0.01919163507812681</v>
       </c>
       <c r="R8">
-        <v>0.008678468639789147</v>
+        <v>5.221329149947363E-05</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.005493004034397182</v>
+        <v>0</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1459,31 +1459,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3075348122009955</v>
+        <v>0.3627136449017674</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4476349744057409</v>
+        <v>0.5447764264477736</v>
       </c>
       <c r="G9">
-        <v>0.06742566487916565</v>
+        <v>0.05068731639426624</v>
       </c>
       <c r="H9">
-        <v>0.01403802735039974</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.04185160026373819</v>
+        <v>0.0174533410294304</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01361915733325379</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1492,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03390740918505072</v>
+        <v>0.007129716115955326</v>
       </c>
       <c r="P9">
-        <v>0.04168708865064582</v>
+        <v>0.01723955511080708</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -1504,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0.000498134202053452</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0.0003219925422327795</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.0003153579942770082</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1525,31 +1525,31 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.004453684493733414</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0004386453466918072</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>6.471356795998509E-06</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0.002715482405766698</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>0.0170882453218146</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.002330653967218428</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.004132598100425573</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,52 +1569,52 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06927810299631917</v>
+        <v>0.06478055405269519</v>
       </c>
       <c r="E10">
-        <v>0.1148558566615041</v>
+        <v>0.1382247171521197</v>
       </c>
       <c r="F10">
-        <v>0.3032817258427413</v>
+        <v>0.441854869045027</v>
       </c>
       <c r="G10">
-        <v>0.1827712942877693</v>
+        <v>0.2476639079168535</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01738323373350549</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02886599939585815</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.03870046685974241</v>
+        <v>0.01550763656520958</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.01621236397244209</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0283970537914252</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.08295354307704948</v>
+        <v>0.08681720945971169</v>
       </c>
       <c r="Q10">
-        <v>0.03227344274045969</v>
+        <v>0.0051511058083834</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>0.0003655524164857924</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>0.002640312202534511</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0.009359809064978113</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1635,34 +1635,34 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.00955963830696307</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.006358132886781936</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0.008943068873138031</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0.01783008428250886</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>0.00619833760475927</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10">
-        <v>0.0179913321067278</v>
+        <v>0</v>
       </c>
       <c r="AI10">
-        <v>0.005780648896306137</v>
+        <v>0</v>
       </c>
       <c r="AJ10">
         <v>0</v>
@@ -1679,52 +1679,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07628472026848854</v>
+        <v>0.07816014890510312</v>
       </c>
       <c r="E11">
-        <v>0.1290356739290216</v>
+        <v>0.1671969275299593</v>
       </c>
       <c r="F11">
-        <v>0.2555908288921587</v>
+        <v>0.3808056404415836</v>
       </c>
       <c r="G11">
-        <v>0.1610608359749982</v>
+        <v>0.2212512538623782</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.01180067920149873</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02018890969294133</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.0004702910642270471</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02070529730133941</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.0001789121160526576</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.04267201745103979</v>
+        <v>0.02142625933412887</v>
       </c>
       <c r="O11">
-        <v>0.02216329417170363</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.1040662937177601</v>
+        <v>0.1250518472234151</v>
       </c>
       <c r="Q11">
-        <v>0.01403618599105261</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>8.818056312807447E-06</v>
+        <v>0</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -1733,46 +1733,46 @@
         <v>0</v>
       </c>
       <c r="V11">
-        <v>0.007150583621751809</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0.02664432583329982</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.001039332690689182</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>0.011930183161334</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.007557946377764371</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
       </c>
       <c r="AC11">
-        <v>0.01039273748292188</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.002349945484861545</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>0.01177795012102974</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.00552909822924566</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0.00142808468589269</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>0.03359647722774645</v>
+        <v>0.006107922703431818</v>
       </c>
       <c r="AI11">
-        <v>0.02234057725486743</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
         <v>0</v>
@@ -1912,97 +1912,97 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1592075617089303</v>
+        <v>0.2103980245946162</v>
       </c>
       <c r="E2">
-        <v>0.1974428000417781</v>
+        <v>0.2241632301818718</v>
       </c>
       <c r="F2">
-        <v>0.4848975106732976</v>
+        <v>0.6430188401029123</v>
       </c>
       <c r="G2">
-        <v>0.6162724027787353</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="H2">
-        <v>0.6162724027787353</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="I2">
-        <v>0.6194170289596594</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="J2">
-        <v>0.6252046667050869</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="K2">
-        <v>0.6252046667050869</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="L2">
-        <v>0.6252046667050869</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="M2">
-        <v>0.6342461950589043</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="N2">
-        <v>0.6581203353863152</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="O2">
-        <v>0.7759615928775406</v>
+        <v>0.951336357714493</v>
       </c>
       <c r="P2">
-        <v>0.8304787234160618</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="Q2">
-        <v>0.8329761615840003</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="R2">
-        <v>0.8452057535510975</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="S2">
-        <v>0.8674183564847326</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="T2">
-        <v>0.8773249088038093</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="U2">
-        <v>0.8842644267785684</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="V2">
-        <v>0.8897769113407737</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="W2">
-        <v>0.8898665110634382</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="X2">
-        <v>0.8898665110634382</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="Y2">
-        <v>0.8898665110634382</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="Z2">
-        <v>0.90000806673205</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AA2">
-        <v>0.9011762902067705</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AB2">
-        <v>0.9069371526464589</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AC2">
-        <v>0.9202182216789595</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AD2">
-        <v>0.9310581345365825</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AE2">
-        <v>0.95137274723854</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AF2">
-        <v>0.9587025026782113</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AG2">
-        <v>0.9643567481967792</v>
+        <v>0.9915667437151432</v>
       </c>
       <c r="AH2">
-        <v>0.9993116679211118</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2022,94 +2022,94 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3191729523797016</v>
+        <v>0.4174782411457238</v>
       </c>
       <c r="E3">
-        <v>0.324773303388288</v>
+        <v>0.4174782411457238</v>
       </c>
       <c r="F3">
-        <v>0.7214841649471382</v>
+        <v>0.9468097178298285</v>
       </c>
       <c r="G3">
-        <v>0.7614072361327294</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="H3">
-        <v>0.7769068352653981</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="I3">
-        <v>0.7899502056558028</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="J3">
-        <v>0.7899502056558028</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="K3">
-        <v>0.7899502056558028</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="L3">
-        <v>0.7900264083417963</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="M3">
-        <v>0.7908264339038119</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="N3">
-        <v>0.7908264339038119</v>
+        <v>0.9614527127593777</v>
       </c>
       <c r="O3">
-        <v>0.847320226868585</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8620096412886457</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.8620096412886457</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0.8682073556709851</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0.8749229804454154</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.9025147303122969</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.9041400213263012</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0.9071430228274336</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0.9097027596144021</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0.9098352256228154</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0.9120627711233469</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0.922135877289602</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.922135877289602</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>0.9347579857855872</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9357473271979552</v>
+        <v>1</v>
       </c>
       <c r="AD3">
-        <v>0.9465021415511733</v>
+        <v>1</v>
       </c>
       <c r="AE3">
-        <v>0.966776229514331</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0.966776229514331</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0.9846777152057785</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2132,94 +2132,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2193119956081596</v>
+        <v>0.2778283313596694</v>
       </c>
       <c r="E4">
-        <v>0.2208946182786707</v>
+        <v>0.2778283313596694</v>
       </c>
       <c r="F4">
-        <v>0.6134976036481004</v>
+        <v>0.8094913127974011</v>
       </c>
       <c r="G4">
-        <v>0.7339822083177584</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="H4">
-        <v>0.7415352532137688</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="I4">
-        <v>0.7580109745398506</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="J4">
-        <v>0.7596267369537366</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="K4">
-        <v>0.7602744604620197</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="L4">
-        <v>0.7602744604620197</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="M4">
-        <v>0.7602744604620197</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="N4">
-        <v>0.7602744604620197</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="O4">
-        <v>0.8205307413514432</v>
+        <v>0.9874037663358256</v>
       </c>
       <c r="P4">
-        <v>0.8587185720382028</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="Q4">
-        <v>0.8587185720382028</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="R4">
-        <v>0.8665275223609673</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="S4">
-        <v>0.8814187791434731</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="T4">
-        <v>0.892812733622434</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="U4">
-        <v>0.8928577656160598</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="V4">
-        <v>0.8989897696866888</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="W4">
-        <v>0.9001408826622929</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="X4">
-        <v>0.9001408826622929</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="Y4">
-        <v>0.9001408826622929</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="Z4">
-        <v>0.9104284333056688</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="AA4">
-        <v>0.9118428722330105</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="AB4">
-        <v>0.9177992744392363</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="AC4">
-        <v>0.9254707070034881</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="AD4">
-        <v>0.9355121136966511</v>
+        <v>0.9999235026736655</v>
       </c>
       <c r="AE4">
-        <v>0.9652050395172835</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.969642331824058</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>0.9782490775963915</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
         <v>0.9999999999999999</v>
@@ -2242,97 +2242,97 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3146589882964852</v>
+        <v>0.4222752828537123</v>
       </c>
       <c r="E5">
-        <v>0.3625963338652118</v>
+        <v>0.4492546334106614</v>
       </c>
       <c r="F5">
-        <v>0.7378822444292231</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="G5">
-        <v>0.7514938159755131</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="H5">
-        <v>0.7724637896536461</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="I5">
-        <v>0.7856314433337503</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="J5">
-        <v>0.7856314433337503</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="K5">
-        <v>0.7856314433337503</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="L5">
-        <v>0.7871162716387509</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="M5">
-        <v>0.7871162716387509</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="N5">
-        <v>0.7927385787343011</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="O5">
-        <v>0.8485287734254566</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8565651812151569</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.8565651812151569</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0.8659476185109135</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0.8726357953828001</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0.8970332864722423</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0.8989559893080526</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.9002012362018805</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0.9020445024747344</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0.9026827124123848</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0.9072571752591494</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0.9189019057346799</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>0.9189019057346799</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0.9339805462098091</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.9339805462098091</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0.9511150192951005</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0.9728409266253214</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0.9728409266253214</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0.9893105861011924</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0.9960690627570382</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,97 +2355,97 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2503307642664209</v>
+        <v>0.3260571843638905</v>
       </c>
       <c r="F6">
-        <v>0.3364170490871914</v>
+        <v>0.4094636716340135</v>
       </c>
       <c r="G6">
-        <v>0.7577778293333501</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="H6">
-        <v>0.7767603875819405</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="I6">
-        <v>0.8049622721267286</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="J6">
-        <v>0.8264856632895551</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="K6">
-        <v>0.8299056974575563</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="L6">
-        <v>0.8299056974575563</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="M6">
-        <v>0.8299056974575563</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="N6">
-        <v>0.8299056974575563</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="O6">
-        <v>0.8330227968624256</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="P6">
-        <v>0.8706428357769948</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.8819248835572125</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.8819248835572125</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.8897627242772788</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0.8923379904682398</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0.910267554147617</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.9116763758550785</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0.9116763758550785</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0.9116763758550785</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0.9116763758550785</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0.9135469023734165</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>0.9204874094777226</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9204874094777226</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9391658443607995</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0.9391658443607995</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0.9538671475992418</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0.9745549581816384</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0.9745549581816384</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>0.9907596940674943</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>0.995892117353925</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
         <v>1</v>
@@ -2462,103 +2462,103 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.07342986975253207</v>
+        <v>0.06699532036295675</v>
       </c>
       <c r="E7">
-        <v>0.1771345667313257</v>
+        <v>0.1789084759422361</v>
       </c>
       <c r="F7">
-        <v>0.5251852286927725</v>
+        <v>0.6533502665765683</v>
       </c>
       <c r="G7">
-        <v>0.7574744782578564</v>
+        <v>0.9560403901388541</v>
       </c>
       <c r="H7">
-        <v>0.7786928941289464</v>
+        <v>0.9560403901388541</v>
       </c>
       <c r="I7">
-        <v>0.8149540731171908</v>
+        <v>0.9678896607992216</v>
       </c>
       <c r="J7">
-        <v>0.8339433942120164</v>
+        <v>0.9678896607992216</v>
       </c>
       <c r="K7">
-        <v>0.8339433942120164</v>
+        <v>0.9678896607992216</v>
       </c>
       <c r="L7">
-        <v>0.8399205995813005</v>
+        <v>0.9678896607992216</v>
       </c>
       <c r="M7">
-        <v>0.8399205995813005</v>
+        <v>0.9678896607992216</v>
       </c>
       <c r="N7">
-        <v>0.8399205995813005</v>
+        <v>0.9678896607992216</v>
       </c>
       <c r="O7">
-        <v>0.8898378318171307</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.9050349570422811</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.9050349570422811</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0.9050349570422811</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.9232951123092922</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>0.9232951123092922</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0.943398418501486</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.943398418501486</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0.943398418501486</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0.943398418501486</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0.943398418501486</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0.943398418501486</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>0.9493681872698239</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0.9493681872698239</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.9613209650732307</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>0.9782145994594349</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2575,85 +2575,85 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.330567670488857</v>
+        <v>0.3414953432354464</v>
       </c>
       <c r="F8">
-        <v>0.330567670488857</v>
+        <v>0.3414953432354464</v>
       </c>
       <c r="G8">
-        <v>0.7269698815690198</v>
+        <v>0.7528245034140827</v>
       </c>
       <c r="H8">
-        <v>0.9323849175525672</v>
+        <v>0.961564516552247</v>
       </c>
       <c r="I8">
-        <v>0.9323849175525672</v>
+        <v>0.961564516552247</v>
       </c>
       <c r="J8">
-        <v>0.9323849175525672</v>
+        <v>0.961564516552247</v>
       </c>
       <c r="K8">
-        <v>0.9323849175525672</v>
+        <v>0.961564516552247</v>
       </c>
       <c r="L8">
-        <v>0.9323849175525672</v>
+        <v>0.961564516552247</v>
       </c>
       <c r="M8">
-        <v>0.9591067224391906</v>
+        <v>0.9807561516303738</v>
       </c>
       <c r="N8">
-        <v>0.9591067224391906</v>
+        <v>0.9807561516303738</v>
       </c>
       <c r="O8">
-        <v>0.9591067224391906</v>
+        <v>0.9807561516303738</v>
       </c>
       <c r="P8">
-        <v>0.9591067224391906</v>
+        <v>0.9807561516303738</v>
       </c>
       <c r="Q8">
-        <v>0.9858285273258139</v>
+        <v>0.9999477867085006</v>
       </c>
       <c r="R8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>0.9945069959656031</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -2682,94 +2682,94 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3075348122009955</v>
+        <v>0.3627136449017674</v>
       </c>
       <c r="E9">
-        <v>0.3075348122009955</v>
+        <v>0.3627136449017674</v>
       </c>
       <c r="F9">
-        <v>0.7551697866067364</v>
+        <v>0.907490071349541</v>
       </c>
       <c r="G9">
-        <v>0.8225954514859021</v>
+        <v>0.9581773877438072</v>
       </c>
       <c r="H9">
-        <v>0.8366334788363018</v>
+        <v>0.9581773877438072</v>
       </c>
       <c r="I9">
-        <v>0.8366334788363018</v>
+        <v>0.9581773877438072</v>
       </c>
       <c r="J9">
-        <v>0.87848507910004</v>
+        <v>0.9756307287732376</v>
       </c>
       <c r="K9">
-        <v>0.87848507910004</v>
+        <v>0.9756307287732376</v>
       </c>
       <c r="L9">
-        <v>0.8921042364332938</v>
+        <v>0.9756307287732376</v>
       </c>
       <c r="M9">
-        <v>0.8921042364332938</v>
+        <v>0.9756307287732376</v>
       </c>
       <c r="N9">
-        <v>0.8921042364332938</v>
+        <v>0.9756307287732376</v>
       </c>
       <c r="O9">
-        <v>0.9260116456183446</v>
+        <v>0.982760444889193</v>
       </c>
       <c r="P9">
-        <v>0.9676987342689904</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.9676987342689904</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0.9676987342689904</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0.9681968684710439</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.9681968684710439</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0.9685188610132767</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.9685188610132767</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0.9688342190075536</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>0.9688342190075536</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>0.9688342190075536</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>0.973287903501287</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.9737265488479788</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.9737330202047748</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0.9737330202047748</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0.9764485026105415</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0.9935367479323561</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0.9935367479323561</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0.9958674018995746</v>
+        <v>1</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -2792,103 +2792,103 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06927810299631917</v>
+        <v>0.06478055405269519</v>
       </c>
       <c r="E10">
-        <v>0.1841339596578233</v>
+        <v>0.2030052712048149</v>
       </c>
       <c r="F10">
-        <v>0.4874156855005645</v>
+        <v>0.644860140249842</v>
       </c>
       <c r="G10">
-        <v>0.6701869797883339</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="H10">
-        <v>0.6701869797883339</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="I10">
-        <v>0.6875702135218393</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="J10">
-        <v>0.7164362129176974</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="K10">
-        <v>0.7164362129176974</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="L10">
-        <v>0.7551366797774398</v>
+        <v>0.9080316847319051</v>
       </c>
       <c r="M10">
-        <v>0.7551366797774398</v>
+        <v>0.9080316847319051</v>
       </c>
       <c r="N10">
-        <v>0.7713490437498819</v>
+        <v>0.9080316847319051</v>
       </c>
       <c r="O10">
-        <v>0.7997460975413071</v>
+        <v>0.9080316847319051</v>
       </c>
       <c r="P10">
-        <v>0.8826996406183566</v>
+        <v>0.9948488941916168</v>
       </c>
       <c r="Q10">
-        <v>0.9149730833588163</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.9149730833588163</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0.9153386357753022</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0.9153386357753022</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0.9153386357753022</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.9179789479778366</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0.9273387570428148</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0.9273387570428148</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>0.9273387570428148</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>0.9368983953497778</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>0.9432565282365597</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0.9432565282365597</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0.9521995971096977</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0.9521995971096977</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0.9700296813922066</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0.9762280189969659</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0.9762280189969659</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0.9942193511036936</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:36">
@@ -2902,103 +2902,103 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07628472026848854</v>
+        <v>0.07816014890510312</v>
       </c>
       <c r="E11">
-        <v>0.2053203941975102</v>
+        <v>0.2453570764350624</v>
       </c>
       <c r="F11">
-        <v>0.4609112230896689</v>
+        <v>0.626162716876646</v>
       </c>
       <c r="G11">
-        <v>0.6219720590646671</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="H11">
-        <v>0.6219720590646671</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="I11">
-        <v>0.6337727382661659</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="J11">
-        <v>0.6539616479591072</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="K11">
-        <v>0.6544319390233342</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="L11">
-        <v>0.6751372363246736</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="M11">
-        <v>0.6753161484407263</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="N11">
-        <v>0.7179881658917661</v>
+        <v>0.8688402300731531</v>
       </c>
       <c r="O11">
-        <v>0.7401514600634697</v>
+        <v>0.8688402300731531</v>
       </c>
       <c r="P11">
-        <v>0.8442177537812298</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="Q11">
-        <v>0.8582539397722824</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="R11">
-        <v>0.8582539397722824</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="S11">
-        <v>0.8582627578285952</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="T11">
-        <v>0.8582627578285952</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="U11">
-        <v>0.8582627578285952</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="V11">
-        <v>0.865413341450347</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="W11">
-        <v>0.8920576672836468</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="X11">
-        <v>0.8920576672836468</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="Y11">
-        <v>0.893096999974336</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="Z11">
-        <v>0.90502718313567</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AA11">
-        <v>0.9125851295134344</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AB11">
-        <v>0.9125851295134344</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AC11">
-        <v>0.9229778669963563</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AD11">
-        <v>0.9253278124812179</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AE11">
-        <v>0.9371057626022476</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AF11">
-        <v>0.9426348608314933</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AG11">
-        <v>0.944062945517386</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="AH11">
-        <v>0.9776594227451325</v>
+        <v>1</v>
       </c>
       <c r="AI11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3060,34 +3060,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.5</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.6430188401029123</v>
       </c>
       <c r="F2">
-        <v>0.6162724027787353</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3101,34 +3101,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.5</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9468097178298285</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7214841649471382</v>
-      </c>
       <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>58</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3142,34 +3142,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.8094913127974011</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.6134976036481004</v>
-      </c>
       <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
         <v>4</v>
       </c>
-      <c r="H4">
-        <v>58</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3183,34 +3183,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.5</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9613823013761684</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7378822444292231</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>58</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3224,34 +3224,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.9881963355118097</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7577778293333501</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3265,34 +3265,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.5</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.6533502665765683</v>
+      </c>
+      <c r="F7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.5251852286927725</v>
-      </c>
       <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="H7">
-        <v>58</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3306,34 +3306,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>0.7528245034140827</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7269698815690198</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3347,34 +3347,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.5</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.907490071349541</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7551697866067364</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
-        <v>58</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3388,34 +3388,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.644860140249842</v>
       </c>
       <c r="F10">
-        <v>0.6701869797883339</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3429,34 +3429,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.5</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.626162716876646</v>
       </c>
       <c r="F11">
-        <v>0.6219720590646671</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>58</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3524,34 +3524,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="F2">
-        <v>0.7759615928775406</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -3565,34 +3565,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9468097178298285</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.7214841649471382</v>
-      </c>
       <c r="G3">
+        <v>500</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>58</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -3606,34 +3606,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.7</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8094913127974011</v>
       </c>
       <c r="F4">
-        <v>0.7339822083177584</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H4">
-        <v>58</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -3647,34 +3647,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="E5">
+        <v>0.9613823013761684</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.7378822444292231</v>
-      </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>58</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -3688,34 +3688,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.9881963355118097</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.7577778293333501</v>
-      </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>4</v>
       </c>
-      <c r="H6">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -3729,34 +3729,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0.9560403901388541</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.7574744782578564</v>
-      </c>
       <c r="G7">
+        <v>500</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>58</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -3770,34 +3770,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.7</v>
+      </c>
+      <c r="E8">
+        <v>0.7528245034140827</v>
+      </c>
+      <c r="F8">
         <v>6</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.7269698815690198</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -3811,34 +3811,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.907490071349541</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0.7551697866067364</v>
-      </c>
       <c r="G9">
+        <v>500</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9">
-        <v>58</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -3852,34 +3852,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="F10">
-        <v>0.7164362129176974</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -3893,34 +3893,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.7</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="F11">
-        <v>0.7179881658917661</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>58</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -3988,34 +3988,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.8</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8081766301389084</v>
       </c>
       <c r="F2">
-        <v>0.8304787234160618</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4029,34 +4029,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.8</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>14</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9468097178298285</v>
       </c>
       <c r="F3">
-        <v>0.847320226868585</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>58</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4070,34 +4070,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.8</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.8094913127974011</v>
       </c>
       <c r="F4">
-        <v>0.8205307413514432</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H4">
-        <v>58</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4111,34 +4111,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.8</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="F5">
-        <v>0.8485287734254566</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H5">
-        <v>58</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4152,34 +4152,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="F6">
-        <v>0.8049622721267286</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>500</v>
       </c>
       <c r="H6">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4193,34 +4193,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.8</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9560403901388541</v>
       </c>
       <c r="F7">
-        <v>0.8149540731171908</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>500</v>
       </c>
       <c r="H7">
-        <v>58</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4234,34 +4234,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <v>0.961564516552247</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9323849175525672</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4275,34 +4275,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.8</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.907490071349541</v>
       </c>
       <c r="F9">
-        <v>0.8225954514859021</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="H9">
-        <v>58</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4316,34 +4316,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.8</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.8925240481666955</v>
       </c>
       <c r="F10">
-        <v>0.8826996406183566</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4357,34 +4357,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.8</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.8474139707390242</v>
       </c>
       <c r="F11">
-        <v>0.8442177537812298</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>58</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
@@ -4452,34 +4452,34 @@
         <v>36</v>
       </c>
       <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>25</v>
-      </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.951336357714493</v>
       </c>
       <c r="F2">
-        <v>0.90000806673205</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>58</v>
-      </c>
-      <c r="I2">
-        <v>500</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
         <v>59</v>
+      </c>
+      <c r="K2">
+        <v>58</v>
       </c>
       <c r="L2" t="s">
         <v>60</v>
@@ -4493,34 +4493,34 @@
         <v>37</v>
       </c>
       <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9468097178298285</v>
       </c>
       <c r="F3">
-        <v>0.9025147303122969</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>58</v>
-      </c>
-      <c r="I3">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
         <v>59</v>
+      </c>
+      <c r="K3">
+        <v>58</v>
       </c>
       <c r="L3" t="s">
         <v>60</v>
@@ -4534,34 +4534,34 @@
         <v>38</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0.9</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.942558417785398</v>
       </c>
       <c r="F4">
-        <v>0.9001408826622929</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="H4">
-        <v>58</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
         <v>59</v>
+      </c>
+      <c r="K4">
+        <v>58</v>
       </c>
       <c r="L4" t="s">
         <v>60</v>
@@ -4575,34 +4575,34 @@
         <v>39</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0.9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.9613823013761684</v>
       </c>
       <c r="F5">
-        <v>0.9002012362018805</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="H5">
-        <v>58</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I5" t="s">
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" t="s">
         <v>59</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
       </c>
       <c r="L5" t="s">
         <v>60</v>
@@ -4616,34 +4616,34 @@
         <v>40</v>
       </c>
       <c r="B6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.9881963355118097</v>
       </c>
       <c r="F6">
-        <v>0.910267554147617</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>500</v>
       </c>
       <c r="H6">
-        <v>58</v>
-      </c>
-      <c r="I6">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
         <v>59</v>
+      </c>
+      <c r="K6">
+        <v>58</v>
       </c>
       <c r="L6" t="s">
         <v>60</v>
@@ -4657,34 +4657,34 @@
         <v>41</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>0.9</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.9560403901388541</v>
       </c>
       <c r="F7">
-        <v>0.9050349570422811</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="H7">
-        <v>58</v>
-      </c>
-      <c r="I7">
-        <v>500</v>
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" t="s">
         <v>59</v>
+      </c>
+      <c r="K7">
+        <v>58</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -4698,34 +4698,34 @@
         <v>42</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.961564516552247</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0.9323849175525672</v>
-      </c>
       <c r="G8">
+        <v>500</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>58</v>
-      </c>
-      <c r="I8">
-        <v>500</v>
+      <c r="I8" t="s">
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" t="s">
         <v>59</v>
+      </c>
+      <c r="K8">
+        <v>58</v>
       </c>
       <c r="L8" t="s">
         <v>60</v>
@@ -4739,34 +4739,34 @@
         <v>43</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
         <v>0.9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.907490071349541</v>
       </c>
       <c r="F9">
-        <v>0.9260116456183446</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>500</v>
       </c>
       <c r="H9">
-        <v>58</v>
-      </c>
-      <c r="I9">
-        <v>500</v>
+        <v>4</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
         <v>59</v>
+      </c>
+      <c r="K9">
+        <v>58</v>
       </c>
       <c r="L9" t="s">
         <v>60</v>
@@ -4780,34 +4780,34 @@
         <v>44</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
         <v>0.9</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>16</v>
-      </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.9080316847319051</v>
       </c>
       <c r="F10">
-        <v>0.9149730833588163</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>58</v>
-      </c>
-      <c r="I10">
-        <v>500</v>
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" t="s">
         <v>59</v>
+      </c>
+      <c r="K10">
+        <v>58</v>
       </c>
       <c r="L10" t="s">
         <v>60</v>
@@ -4821,34 +4821,34 @@
         <v>45</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0.9</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.9938920772965683</v>
       </c>
       <c r="F11">
-        <v>0.90502718313567</v>
+        <v>15</v>
       </c>
       <c r="G11">
-        <v>24</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>58</v>
-      </c>
-      <c r="I11">
-        <v>500</v>
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" t="s">
         <v>59</v>
+      </c>
+      <c r="K11">
+        <v>58</v>
       </c>
       <c r="L11" t="s">
         <v>60</v>
